--- a/target/classes/readexcel.xlsx
+++ b/target/classes/readexcel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="4">
   <si>
     <t>data1</t>
   </si>
@@ -276,7 +276,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -308,10 +308,10 @@
       </c>
     </row>
     <row r="11">
-      <c r="G11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
         <v>3</v>
       </c>
     </row>
